--- a/nmadb/501379.xlsx
+++ b/nmadb/501379.xlsx
@@ -1,6 +1,258 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="30" windowWidth="21255" windowHeight="9990"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="124519"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Beneficial</t>
+  </si>
+  <si>
+    <t>4S</t>
+  </si>
+  <si>
+    <t>Treatments</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>ACAPS</t>
+  </si>
+  <si>
+    <t>Intermediate/Moderate</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>AFCAPS/TexCAPS</t>
+  </si>
+  <si>
+    <t>ALLHAT-LLT</t>
+  </si>
+  <si>
+    <t>ALLIANCE</t>
+  </si>
+  <si>
+    <t>ASCOT-LLA</t>
+  </si>
+  <si>
+    <t>ASPEN</t>
+  </si>
+  <si>
+    <t>CAIUS</t>
+  </si>
+  <si>
+    <t>CARDS</t>
+  </si>
+  <si>
+    <t>CARE</t>
+  </si>
+  <si>
+    <t>CCAIT</t>
+  </si>
+  <si>
+    <t>CIS</t>
+  </si>
+  <si>
+    <t>CLAPT</t>
+  </si>
+  <si>
+    <t>DALI</t>
+  </si>
+  <si>
+    <t>EXCEL</t>
+  </si>
+  <si>
+    <t>FLARE</t>
+  </si>
+  <si>
+    <t>GISSI-P</t>
+  </si>
+  <si>
+    <t>HPS</t>
+  </si>
+  <si>
+    <t>IDEAL</t>
+  </si>
+  <si>
+    <t>JUPITER</t>
+  </si>
+  <si>
+    <t>KAPS</t>
+  </si>
+  <si>
+    <t>LIPID</t>
+  </si>
+  <si>
+    <t>LIPS</t>
+  </si>
+  <si>
+    <t>LiSA</t>
+  </si>
+  <si>
+    <t>MAAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohler </t>
+  </si>
+  <si>
+    <t>PLAC I</t>
+  </si>
+  <si>
+    <t>PMSG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREDICT </t>
+  </si>
+  <si>
+    <t>PROSPER</t>
+  </si>
+  <si>
+    <t>PROVE IT - TIMI</t>
+  </si>
+  <si>
+    <t>REGRESS</t>
+  </si>
+  <si>
+    <t>REVERSAL</t>
+  </si>
+  <si>
+    <t>SAGE</t>
+  </si>
+  <si>
+    <t>SCAT</t>
+  </si>
+  <si>
+    <t>Schmermund</t>
+  </si>
+  <si>
+    <t>SPARCL</t>
+  </si>
+  <si>
+    <t>TNT</t>
+  </si>
+  <si>
+    <t>WOSCOPS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Outcome</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: reduction of CV events (non-fatal MI)</t>
+    </r>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="3">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -74,7 +326,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -109,7 +360,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -144,16 +394,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -275,50 +529,1460 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>270</v>
+      </c>
+      <c r="E2">
+        <v>2223</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>164</v>
+      </c>
+      <c r="E3">
+        <v>2221</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>459</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>460</v>
+      </c>
+      <c r="J5" s="2">
+        <v>4</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>95</v>
+      </c>
+      <c r="E6">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>57</v>
+      </c>
+      <c r="E7">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>259</v>
+      </c>
+      <c r="E8">
+        <v>5185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>220</v>
+      </c>
+      <c r="E9">
+        <v>5170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>94</v>
+      </c>
+      <c r="E10">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>52</v>
+      </c>
+      <c r="E11">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>108</v>
+      </c>
+      <c r="E12">
+        <v>5137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>60</v>
+      </c>
+      <c r="E13">
+        <v>5168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>66</v>
+      </c>
+      <c r="E14">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>49</v>
+      </c>
+      <c r="E15">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>41</v>
+      </c>
+      <c r="E18">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>231</v>
+      </c>
+      <c r="E20">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>182</v>
+      </c>
+      <c r="E21">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <v>14</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>18</v>
+      </c>
+      <c r="E31">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>15</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>47</v>
+      </c>
+      <c r="E32">
+        <v>6586</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34">
+        <v>16</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>41</v>
+      </c>
+      <c r="E35">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36">
+        <v>17</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>39</v>
+      </c>
+      <c r="E36">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>574</v>
+      </c>
+      <c r="E37">
+        <v>10267</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>357</v>
+      </c>
+      <c r="E38">
+        <v>10269</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39">
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>267</v>
+      </c>
+      <c r="E39">
+        <v>4439</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40">
+        <v>19</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>321</v>
+      </c>
+      <c r="E40">
+        <v>4449</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>62</v>
+      </c>
+      <c r="E41">
+        <v>8901</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42">
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>22</v>
+      </c>
+      <c r="E42">
+        <v>8901</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43">
+        <v>21</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44">
+        <v>21</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45">
+        <v>22</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>389</v>
+      </c>
+      <c r="E45">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46">
+        <v>22</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>302</v>
+      </c>
+      <c r="E46">
+        <v>4512</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47">
+        <v>23</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>38</v>
+      </c>
+      <c r="E47">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48">
+        <v>23</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>30</v>
+      </c>
+      <c r="E48">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49">
+        <v>24</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50">
+        <v>24</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51">
+        <v>25</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52">
+        <v>25</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>9</v>
+      </c>
+      <c r="E52">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53">
+        <v>26</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54">
+        <v>26</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55">
+        <v>26</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56">
+        <v>27</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>16</v>
+      </c>
+      <c r="E56">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57">
+        <v>27</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>7</v>
+      </c>
+      <c r="E57">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58">
+        <v>28</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59">
+        <v>28</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60">
+        <v>29</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61">
+        <v>29</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62">
+        <v>30</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>254</v>
+      </c>
+      <c r="E62">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63">
+        <v>30</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>222</v>
+      </c>
+      <c r="E63">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64">
+        <v>31</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>138</v>
+      </c>
+      <c r="E64">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65">
+        <v>31</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>152</v>
+      </c>
+      <c r="E65">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66">
+        <v>32</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>12</v>
+      </c>
+      <c r="E66">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67">
+        <v>32</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>7</v>
+      </c>
+      <c r="E67">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68">
+        <v>33</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69">
+        <v>33</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>7</v>
+      </c>
+      <c r="E69">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70">
+        <v>34</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>16</v>
+      </c>
+      <c r="E70">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71">
+        <v>34</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>16</v>
+      </c>
+      <c r="E71">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72">
+        <v>35</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>9</v>
+      </c>
+      <c r="E72">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73">
+        <v>35</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>10</v>
+      </c>
+      <c r="E73">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74">
+        <v>36</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>46</v>
+      </c>
+      <c r="B75">
+        <v>36</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>47</v>
+      </c>
+      <c r="B76">
+        <v>37</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>82</v>
+      </c>
+      <c r="E76">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>47</v>
+      </c>
+      <c r="B77">
+        <v>37</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>43</v>
+      </c>
+      <c r="E77">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>48</v>
+      </c>
+      <c r="B78">
+        <v>38</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>243</v>
+      </c>
+      <c r="E78">
+        <v>4995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>48</v>
+      </c>
+      <c r="B79">
+        <v>38</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>308</v>
+      </c>
+      <c r="E79">
+        <v>5006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>49</v>
+      </c>
+      <c r="B80">
+        <v>39</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>204</v>
+      </c>
+      <c r="E80">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>49</v>
+      </c>
+      <c r="B81">
+        <v>39</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>143</v>
+      </c>
+      <c r="E81">
+        <v>3302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>